--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1720">
   <si>
     <t>Date</t>
   </si>
@@ -4448,6 +4448,1746 @@
   </si>
   <si>
     <t>http://finance.yahoo.com/r/57bb6dea-265c-337f-89ec-bc2e8848edf7/2-companies-whose-sales-could-double-in-2017.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:41:00</t>
+  </si>
+  <si>
+    <t>Live From Saturday Night! Apple and Verizon Ads</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/9a44ea2a-9780-398e-bd5b-720685a10052/saturday-night-live-produce-ad-spots-apple-and-verizon?partner=YahooSA&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:54:00</t>
+  </si>
+  <si>
+    <t>Pokémon GO's Mystery Raids Might Actually Be Live Legendary Events</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/79fd0509-0485-3b4b-9c04-71725343d109/pokemon-gos-mystery-raids-might-actually-be-live-legendary-events?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Foxconn Prepared to Pay Up to $27 Billion for Toshiba Chip Business</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c1cb21b3-c657-376a-9c3c-0735f4d2c8cb/foxconn-prepared-to-pay-up-to-27-billion-for-toshiba-chip-business.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:51:00</t>
+  </si>
+  <si>
+    <t>143.46</t>
+  </si>
+  <si>
+    <t>While The Dow Dithered, Apple, Disney And Three More Dow Components Surged</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bdbf0a73-9403-30b4-87cb-1db1d299d2e0/while-the-dow-dithered-apple-disney-and-three-more-dow-components-surged?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:02:50</t>
+  </si>
+  <si>
+    <t>What Do Analysts Expect from Apple’s Fiscal 2Q17 Earnings?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/39423378-4660-35b6-9520-9760ebedc1e4/what-do-analysts-expect-from-apples-fiscal-2q17-earnings?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:28:57</t>
+  </si>
+  <si>
+    <t>143.40</t>
+  </si>
+  <si>
+    <t>Obscure index could hold the key to the market's next move</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1cfc0048-f1f8-31a8-a8d9-d4810b98aa3a/104392358?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104392358&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:51:50</t>
+  </si>
+  <si>
+    <t>143.30</t>
+  </si>
+  <si>
+    <t>More Teens Than Ever Expect Next Phone To Be An iPhone: Piper Jaffray</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/97ad5e7b-034e-3f90-8c79-c03920d1d525/more-teens-than-ever-expect-next-phone-to-be-an-iphone-piper-jaffray?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:47:00</t>
+  </si>
+  <si>
+    <t>This tablet could be better than Apple’s iPad</t>
+  </si>
+  <si>
+    <t>CNBC’s Technology Products Editor Todd Haselton explains why Apple may have some competition with Samsung’s latest Galaxy Tab 3.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/tablet-could-better-apple-ipad-134700144.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:08:38</t>
+  </si>
+  <si>
+    <t>How Apple Clips could help businesses break into video on social media</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1cbfe612-30aa-3a23-a158-a399103bb22d/how-apple-clips-could-help-businesses-break-into-video-on-social-media/#ftag=YHF87e0214?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:00:28</t>
+  </si>
+  <si>
+    <t>Sneaking into the red in the final moments of action on Friday, the major averages ended the week with losses all under 1%. That being said, today's session closed with the S&amp;P 500 as the worst performer, shedding 1.95 points (-0.08%) to 2355.54. The Dow Jones Industrial Average for its part lost 6.85 points (-0.03%) to 20656.10, while the Nasdaq Composite declined 1.14 (-0.02%) to 5877.81. This week's moves take the three major averages to +5.2%, +4.5% and +9.2% YTD, respectively.
+Today's economic data included March nonfarm payrolls increased by 98,000 and March private sector payrolls increased by 89,000. Additionally, wholesale inventories increased 0.4% month-over-month in February, as expected, versus a 0.2% decline in January. Wholesale sales for February increased 0.6% on the heels of an upwardly revised 0.3 increase (from -0.1%) for January. Lastly, total outstanding consumer credit increased by $15.2 billion in February after increasing an upwardly revised $10.9 billion (from $8.8 billion) in January.
+Despite carrying gains for almost the entirety of the session, the Technology (XLK 53.06, -0.03 -0.06%) space succumbed to last minute selling pressure. Component Frontier Communications (FTR 2.06, -0.04 -1.90%) was weaker today on no specific news. The US Telecom space as a whole outperformed today IYZ +0.33% followed by XLP +0.27%, XLV +0.18%, XLRE +0.13%, XLI +0.11%, XLB -0.09%, XLY -0.30%, XLE -0.38%, XLF -0.42%, XLU -0.43%.
+In the S&amp;P 500 Information Technology (900.93, -0.61 -0.07%) space, trading ended modestly lower. Components WU -1.17%, AKAM -1.11%, HPQ -1.08%, FFIV -0.92%, ADS -0.92%, EBAY -0.73%, CRM -0.73%, NTAP -0.61%, NVDA -0.43% ended Friday lower, pressured by the broader sector.</t>
+  </si>
+  <si>
+    <t>17:07:00</t>
+  </si>
+  <si>
+    <t>New iPhone 8 Leaks Exploit Apple's Next-Generation Technology</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/4b62455c-ede3-3612-872d-5209519be8bb/apple-iphone8-leak-rumor-smart-connector?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:21:00</t>
+  </si>
+  <si>
+    <t>Roundtable: The Single Best Stock to Own Today</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/54549a24-f8d6-32f9-81a2-53161b2d0025/roundtable-the-single-best-stock-to-own-today.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:30:50</t>
+  </si>
+  <si>
+    <t>The Strongest Evidence Yet For An iPhone &amp;apos;Supercycle&amp;apos;?</t>
+  </si>
+  <si>
+    <t>17:35:52</t>
+  </si>
+  <si>
+    <t>143.41</t>
+  </si>
+  <si>
+    <t>How Will Apple’s iPhone Perform in Fiscal 2Q17?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bf5396f0-e3c4-3561-a1db-35d25e1474e8/how-will-apples-iphone-perform-in-fiscal-2q17?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:31:00</t>
+  </si>
+  <si>
+    <t>2 Top Dividend Stocks in Mobile Devices</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8e22de65-1111-34b4-b3f0-0f057b57b3da/2-top-dividend-stocks-in-mobile-devices-or-the-2-b.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:34:03</t>
+  </si>
+  <si>
+    <t>18:47:00</t>
+  </si>
+  <si>
+    <t>143.48</t>
+  </si>
+  <si>
+    <t>Samsung Just Dropped a Major Clue It Has Developed an Apple iPhone 8 Killer</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/aab3652d-8c46-3308-9eae-955b4e0b5bd1/here-s-the-only-stuff-worth-caring-about-from-samsung-s-new-apple-iphone-8-killer.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:18:54</t>
+  </si>
+  <si>
+    <t>19:05:48</t>
+  </si>
+  <si>
+    <t>143.35</t>
+  </si>
+  <si>
+    <t>Why Apple Suppliers’ Shares Have Risen in 2017</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1d9f9900-bc68-3de6-b907-f86e81330f9f/why-apple-suppliers-shares-have-risen-in-2017?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>19:29:00</t>
+  </si>
+  <si>
+    <t>143.32</t>
+  </si>
+  <si>
+    <t>Disney, Starbucks, Apple Top Piper Teen Popularity Survey</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5579c73e-635f-3194-a90c-c424677dbfb1/disney-starbucks-apple-top-piper-teen-popularity-survey.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>19:58:54</t>
+  </si>
+  <si>
+    <t>Blue Chip Tech Stocks Help Fuel This Red-Hot Fund</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>Without Apple Inc., Imagination Technologies&amp;apos; PowerVR Has No Future</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ff164094-6be6-3935-8fe8-16673943b718/without-apple-inc-imagination-technologies-powervr.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>While The Dow Dithered, Apple, Disney And 3 More Dow Components Surged</t>
+  </si>
+  <si>
+    <t>Intel: Mizuho Likes Stable PC Market, NAND Pricing, iPhone Into Q1 Report</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1c52f9d8-1a9f-355d-952a-29ba474f97c6/intel-mizuho-likes-stable-pc-market-nand-pricing-iphone-into-q1-report?mod=yahoobarrons&amp;ru=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>21:53:00</t>
+  </si>
+  <si>
+    <t>143.17</t>
+  </si>
+  <si>
+    <t>Google's Reported Plans to Invest in LG Display Show How Big Its Plans Might Be for the Pixel</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/98b1bacd-c72f-383f-ad3f-07d728779e49/google-s-reported-plans-to-invest-in-lg-display-show-how-big-its-plans-might-be-for-the-pixel.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:04:00</t>
+  </si>
+  <si>
+    <t>Google's Reported Plans to Invest in LG Display Show How Big It's Thinking With the Pixel</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>Why Foxconn Might Be Prepared to Pay a Whopping Sum for Toshiba's Chip Business</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/9901d7ee-4ba7-35b8-a63a-fc337c1a8899/why-foxconn-might-be-prepared-to-pay-a-whopping-sum-for-toshiba-s-chip-business.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:58:00</t>
+  </si>
+  <si>
+    <t>Consumer Survey of 6,000 Teens Reveals the Power of Amazon, Apple, Snapchat and Netflix</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/cef1155c-bcfc-3de1-8ea3-a7453c5c4534/consumer-survey-of-6-000-teens-reveals-the-power-of-amazon-apple-snapchat-and-netflix.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>00:21:58</t>
+  </si>
+  <si>
+    <t>Former Apple CEO Scully on How Lantern Credit Utilizes AI</t>
+  </si>
+  <si>
+    <t>Apr.10 -- Lantern Credit Vice Chairman John Sculley, former CEO of Apple, discusses the future of artificial intelligence in the financial tech industry. He speaks with Caroline Hyde on “Bloomberg Technology.”</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/former-apple-ceo-scully-lantern-232158597.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:23:28</t>
+  </si>
+  <si>
+    <t>Futures Steady: Wall Street, Teens Love These 3 Dow Stocks</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8de63a89-945d-30d7-886c-e4931c7f8235/futures-steady-3-dow-stocks-show-why-you-should-invest-like-a-teen?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>01:11:17</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>As Apple Strives To Contain Manufacturing Costs, Its Suppliers Are Paying The Price</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1fe58b9c-d63e-3686-b17e-5c77fa8e6122/as-apple-strives-to-contain-manufacturing-costs-its-suppliers-are-paying-the-price?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:33:42</t>
+  </si>
+  <si>
+    <t>Apple may ditch Dialog, analyst says, hitting chipmaker's shares</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: Dialog semiconductor logo is pictured at a company building in Germering near Munich, Germany August 15, 2016. REUTERS/Michaela Rehle
+FRANKFURT (Reuters) - Dialog Semiconductor (DLGS.DE) risks losing a crucial supply deal with Apple Inc (AAPL.O), according to a financial analyst who cut his rating on the stock on Tuesday, sending the Anglo-German chipmaker's shares down by as much as one-third.
+Bankhaus Lampe reduced its rating on Dialog to "sell" from "hold" as it argued that Apple was working on its own battery-saving chip for the iPhone that could replace Dialog's power management integrated circuits (PMIC) as early as 2019.
+Apple accounted for more than 70 percent of Dialog's 2016 sales, analysts estimate. The German company says it is the world's top maker of power management chips used in smartphones with roughly 20 percent of the market.
+Shares in Dialog fell as much as 36 percent on Tuesday to a seven-month low. They had more than doubled in the second half of 2016 on rising expectations for the iPhone 8 due out later in 2017. By 1052 GMT, they had pared losses by half to trade down 19 percent at 37.70 euros ($38.87).
+Apple's suppliers are in the spotlight after Imagination Technologies (IMG.L) last week revealed Apple's plans to replace its graphics chips with parts it is developing in-house, sending shudders through Apple's global supply chain.
+Bankhaus Lampe cited unnamed industry sources as saying that Apple was setting up power management design centers both in Munich and California and said Apple already had around 80 engineers working on a power management chip of its own.
+"In our view, there is strong evidence that Apple is developing its own PMIC and intends to replace the chip made by Dialog at least in part," Bankhaus Lampe analyst Karsten Iltgen said, referring to power management chips.
+Lampe's Iltgen is a four-star rated analyst for the accuracy of his earnings estimates on Dialog and ranks sixth among 16 analysts covering the stock, according to Thomson Reuters data.
+A source familiar with the matter confirmed that Apple was recruiting top Dialog engineers in Munich. "They are poaching like crazy," the person said.
+A Dialog spokesman declined to comment. He also said Dialog was not planning any official statement.
+Apple did not immediately respond to a Reuters' request to comment.
+A trader with brokerage Exane, who said he had been in contact with Dialog management, said investors were overreacting to speculation that Dialog might lose Apple's business.
+He said Dialog has completed designs for chips that Apple plans to use in 2017 and 2018 iPhone models while it continues to discuss with Apple using its parts in 2019 phones.
+The trader also said Apple would need to hire more than 1,000 engineers to completely replace the power management chips supplied by Dialog.
+The downside of winning Apple as a customer is that smaller suppliers can become highly dependent on its business due to the huge sales volumes generated by new iPhone contracts.
+Dialog has made several attempts to diversify beyond Apple and other smartphone customers in the past few years.
+In 2014, merger talks between Dialog and Austrian sensor chip maker Ams AG (AMS.S) fell apart after they failed to come to terms. Its plans to buy U.S.-based Atmel in 2015 were derailed after Microchip (MCHP.O) swooped in with a higher bid.
+Apple has outsourced production of its hardware products to an extended network of suppliers, large and small, while it has moved over the past decade to design its own central processors and added functions like fingerprint recognition since then.
+Over the past dozen years, Apple suppliers CSR, PortalPlayer, Sigmatel and Wolfson have been replaced, pushing them eventually to merge with more diversified players.
+But Apple continues to rely on key suppliers to develop innovations ranging from image and motion sensors to power management.
+Other chip suppliers for the current iPhone 7 include, but are not limited to, Cirrus Logic (CRUS.O), NXP (NXPI.O), Qualcomm (QCOM.O), Skyworks (SWKS.O), STMicroelectronics (STM.PA), according to an analysis by TechInsights in September.
+Shares in highly diversified chipmaker STMicro, which analysts believe supplies light sensors for iPhones, fell 2.5 percent, weighing on the benchmark STOXX Europe 600 Technology (.SX8P) index, which was down 1 percent.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-may-ditch-dialog-chip-084925977.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:37:08</t>
+  </si>
+  <si>
+    <t>How Will Apple’s iPhone Perform in the Long Run?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bf88021c-7133-39b3-90af-3cc5a1ecf33e/how-will-apples-iphone-perform-in-the-long-run?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:45:00</t>
+  </si>
+  <si>
+    <t>Apple May Ditch Supplier Dialog Semiconductor</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/4747502b-4ab4-33ef-bbd1-9f652fabebaa/apple-may-ditch-dialog-semiconductor-as-a-supplier.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple Drops to Fifth Place in Laptop Survey (AAPL,HPE)</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/f7d0a348-c5a4-3a83-aa90-2477c12a6d7f/apple-drops-fifth-place-laptop-survey-aaplhpe?partner=YahooSA&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:51:00</t>
+  </si>
+  <si>
+    <t>Apple Held Back Most Advanced Wireless Tech, Says Qualcomm</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/19ab99e0-f45d-389d-a6df-ce500ee9bace/apple-held-back-most-advanced-wireless-tech-says-qualcomm?mod=yahoobarrons&amp;ru=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:18:39</t>
+  </si>
+  <si>
+    <t>Early movers: UAL, DIS, WFM, YELP, SDRL, WDC &amp; more</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/2aef298d-6e73-3f48-a9ac-499f5930b701/104397447?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104397447&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:36:15</t>
+  </si>
+  <si>
+    <t>Qualcomm: Apple Misled On Intel Chip Performance In iPhone 7</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/577c72ed-12a3-3a0b-a7c4-24776fe7381f/qualcomm-says-apple-misled-on-intel-chip-performance-in-iphones?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:38:12</t>
+  </si>
+  <si>
+    <t>Another Apple supplier sees its shares tank amid fears it could lose its key contract</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/53286c32-962f-3226-9d05-c2019200c525/104397192?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104397192&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:47:19</t>
+  </si>
+  <si>
+    <t>Stock Futures Flat; Caterpillar Rumbles, United Takes Heat</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/4ddd4dcd-29a3-374d-a41c-d07a5c1e4dfb/stock-futures-flat-caterpillar-rumbles-united-takes-heat?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:47:52</t>
+  </si>
+  <si>
+    <t>[$$] Dialog Semiconductor: dog days</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bf48b14d-5ec1-3dbe-b59f-f0f348e21d97/1ec91fe2-1eaa-11e7-b7d3-163f5a7f229c,s01=1.html?ftcamp=traffic/partner/feed_headline/us_yahoo/auddev&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:51:00</t>
+  </si>
+  <si>
+    <t>3 Stocks With Apple-Like Return Potential</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/d2d3dd8f-ba24-3227-a432-ffa4688fcfd2/3-stocks-with-apple-like-return-potential.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:51:21</t>
+  </si>
+  <si>
+    <t>Your first trade for Tuesday, April 11</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ab394106-9796-3630-9726-4936d05a2315/104397501?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104397501&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Why Himax Technologies, Inc. Stock Popped 34.5% in March</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/814233e3-1f3a-3961-bae5-4a3d3cce2d0e/why-himax-technologies-inc-stock-popped-345-in-mar.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:03:39</t>
+  </si>
+  <si>
+    <t>Fitbit’s new smartwatch has been plagued by production mishaps</t>
+  </si>
+  <si>
+    <t>Pictured: The Fitbit Blaze, which looks very similar to Fitbit’s upcoming smartwatch, based on an internal presentation deck seen by Yahoo Finance.
+Fitbit’s (FIT) first “proper” smartwatch and first-ever pair of bluetooth headphones are due out this fall after a series of production mishaps delayed the project, Yahoo Finance has learned.
+The fitness tracker company’s smartwatch project has been a troubled one. Production problems have forced Fitbit to push an original spring launch to this fall, according to two sources familiar with the matter.
+“In one of the more final prototypes, the GPS wasn’t working because the antennae wasn’t in the right place,” one of those sources told Yahoo Finance. “They had to go back to the drawing board to redesign the product so the GPS got a strong signal.”
+Fitbit’s design team also ran into problems making its smartwatch fully waterproof, even though that’s a key design element for the Apple Watch Series 2. Indeed, it’s still unclear as of the publication of this article whether the device will launch with the waterproof feature. If it isn’t waterproof, critics may perceive it to be an inferior product to Apple’s — especially given that the device will launch roughly a year after the Apple Watch Series 2.
+“Regardless of whether Fitbit manages to make it waterproof, I think they have to release the watch later this year,” one of our sources familiar with the matter told Yahoo Finance. “It’s literally sink or swim time for them.”
+The watch, according to the two sources familiar with the matter, will include a color display with 1,000 nits of brightness comparable to the Apple Watch Series 2. It will also sport a built-in GPS chip, heart-rate monitoring, the ability to make touchless payments, the ability to store and play music from Pandora (P), and four days of battery life between charges. All those features will be housed in an aluminum unibody design, which in true Fitbit fashion, will let users swap watch bands when it hits shelves later this year for around $300.
+Yahoo Finance viewed the presentation deck Fitbit showed retail partners like Best Buy (BBY) and Target (TGT) behind closed doors. That deck revealed a general design aesthetic that resembles a product in the company’s current product line: the Blaze.
+“It was very retro-looking with the lines and stuff — definitely not sexy,” one source told Yahoo Finance. Several employees who saw the design complained about it, the source said.
+Fitbit also plans on releasing a pair of Bluetooth headphones alongside the smartwatch, according to Yahoo Finance’s sources. Similar in design to Beats and Apple’s (AAPL) Beats X earbuds, Fitbit’s earbuds will hang around your neck. Expect them in two colors, which the company has dubbed “Nightfall Blue” and “Lunar Gray.”
+A Fitbit spokesperson declined to comment on these details. “We know there is a lot of interest in our entry into the smartwatch category,” the spokesperson said. “We don’t have news to share at this time and do not comment on rumors or speculation.”
+The 10-year-old San Francisco-based Fitbit needs the smartwatch to be a hit. The company cut 6% of its workforce earlier this year, and its fourth-quarter revenue plummeted 19% even with the help of the holiday season.
+Whether Fitbit’s smartwatch is the device it needs to revive its flagging bottom line remains to be seen.
+JP Mangalindan is a senior correspondent for Yahoo Finance covering the intersection of tech and business. Follow him on Twitter or Facebook.
+Facebook Messenger now analyzes your chats to give you recommendations
+Gay tech workers earn less than their straight counterparts
+How BlackBerry stays relevant in the age of the iPhone
+Why Snap may be more like Twitter than Facebook
+How GameStop could bounce back after its epic sales miss
+Why ‘experience can hurt tech workers in Silicon Valley
+Why AI could be Silicon Valley’s latest ‘micro bubble’
+Surprise and disgust: What 6 Silicon Valley CEOs said about Trump’s ban</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/fitbits-new-smartwatch-plagued-production-mishaps-130339269.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:05:31</t>
+  </si>
+  <si>
+    <t>11 Companies with the Best Customer Service in America</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5be9245e-ebf0-3336-ba59-c18c8fe8ee91/11-companies-with-the-best-customer-service-in-america-573061?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:06:25</t>
+  </si>
+  <si>
+    <t>Will Apple’s MacBook Revenue Rise in Fiscal 2Q17?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/e2393c99-a306-3084-a336-b4c58616c9d4/will-apples-macbook-revenue-rise-in-fiscal-2q17?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:20:49</t>
+  </si>
+  <si>
+    <t>Apple loses top spot on Laptop Magazine’s best brands ranking for 2017</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3344fdbe-6250-3aee-8fd6-d4d434fed59e/Story.aspx?guid=0F5A480C-1EB3-11E7-ADA5-03973F81D55F&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t>21:36:00</t>
+  </si>
+  <si>
+    <t>PC Sales Are Looking a Lot Like TV Sales -- and That's a Good Thing</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/84dc041c-6551-363b-92db-d2d713aa247b/pc-sales-are-looking-a-lot-like-tv-sales-and-that-s-a-good-thing.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>21:39:22</t>
+  </si>
+  <si>
+    <t>How Booming China, Apple Demand Is Bad News For The Optical Industry</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/00240690-4b38-3e9c-9002-d5cbbe9faa40/how-china-and-apple-may-stand-in-the-way-of-optical-consolidation?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple, Inc. Suppliers Should Be Paranoid Right Now</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1d76076b-6239-3cc8-a1cf-972eac21d028/apple-inc-suppliers-should-be-paranoid-right-now.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>21:51:30</t>
+  </si>
+  <si>
+    <t>Apple In-Sourcing Hit List To Spare Cirrus, Skyworks: Analyst</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/63fd6d42-882d-33ec-9d3f-4a89c017a260/apple-in-sourcing-hit-list-to-spare-cirrus-skyworks-analyst?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:09:16</t>
+  </si>
+  <si>
+    <t>Apple Supplier On Tap; Is JPMorgan&amp;apos;s Dimon Still Bullish On Trump? Investing Action Plan</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/a22cc2ae-baf2-3cb1-8879-9a1503b9840a/apple-supplier-taiwan-semi-dows-jpmorgan-investing-action-plan?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:17:00</t>
+  </si>
+  <si>
+    <t>PayPal Beats Out Plastic for Online Purchases, Credit Suisse Says</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/dc5eb4a2-7515-3f56-8c9c-c3d8ea6b37dc/paypal-beats-out-plastic-for-online-purchases-credit-suisse-says.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Why AMD and NVDA's stocks got rattled</t>
+  </si>
+  <si>
+    <t>Jim Cramer reveals that the selloff has less to do with business and more to do with market perception.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/why-amd-nvdas-stocks-got-220900039.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:33:52</t>
+  </si>
+  <si>
+    <t>Cramer investigates why AMD and NVDA's stocks just got rattled</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/94e5f069-0d97-3e3b-96b1-c8778eb7d88c/104400338?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104400338&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:39:10</t>
+  </si>
+  <si>
+    <t>Strong PC Shipments Witnessed in Q1: Gartner, IDC</t>
+  </si>
+  <si>
+    <t>The two independent research firms — Gartner Inc. IT and International Data Corporation (“IDC”) – yesterday reported their worldwide PC shipment data. Although the numbers of both firms are different, they have one similar opinion that the worldwide PC shipment has shown concrete signs of improvement in the very first quarter of 2017.
+According to Gartner, although PC shipment declined year over year, it is rather modest compared with several previous quarters. On the other hand, as per IDC, PC shipment recorded its first growth in the last five quarter.
+The preliminary data released by Gartner showed that PC shipments in the quarter were down 2.4% year over year to 62.2 million units. The decline marked the 10th straight quarter of year-over-year fall, which is the longest duration of decline in the history of the PC industry.
+During the quarter, the industry witnessed modest growth in business PCs for the first time, after several quarters of decline. However, demand for consumer PCs continued to decline as various customers refrained from replacing their older PCs, while some consumers stopped using PCs as they can do their work on other mobile devices.
+Gartner stated that among the top six vendors, Asus and Acer witnessed declines in PC sales, while the likes of Lenovo, HP Inc. HPQ, Dell and Apple AAPL recorded growth during the first quarter. However, companies under the Others category witnessed a 12% drop in PC shipments.
+Lenovo managed to retain its leading position with 19.9% market share. Most importantly, the company registered a year-over-year increase in PC sales for the second time in a row, after witnessing a decline for several quarters. Lenovo saw 1.2% growth in PC sales during the first quarter.
+HP Inc. and Dell were the other gainers during the quarter, and recorded the fourth consecutive quarter of year-over-year growth. Holding the second spot among worldwide PC vendors, HP Inc. registered 6.5% growth in PC shipments and raised its market share to 19.5% from 17.9% in the year-ago quarter. Dell, which occupied the third position, witnessed 3.4% growth and raised its market share to 15% from 14.2% in first-quarter 2016.
+After making a comeback in fourth-quarter 2016, Apple continued to witness year-over-year growth in the first quarter as well. During the quarter, the company’s Mac sales climbed 4.5%, which helped it to improve its market share to 6.8% from 6.3%. It holds the fifth spot among the top six PC vendors.
+Asus and Acer held the fourth and sixth spots respectively, witnessing a year-over-year decline in PC shipments of 14% and 1.8%.
+First Growth After Five Years – Per IDC
+IDC stated that after witnessing decline for consecutive five years, worldwide PC shipments registered its first growth in this quarter. During the first quarter, PC shipments grew 0.6% year over year to about 60.3 million units. According to, Jay Chou, research manager, IDC PCD Tracker "The traditional PC market has been through a tough phase, with competition from tablets and smartphones as well as lengthening lifecycles pushing PC shipments down roughly 30% from a peak in 2011."
+The difference in data is mainly due to different techniques used for tracking PC sales as well as the inclusion and/or exclusion of certain products. For example, unlike Gartner, IDC includes Chromebooks, which run on Alphabet Inc.’s GOOGL Chrome operating system. Gartner, on the other hand, takes into account Microsoft Corp. MSFT tablets and "detachables" such as the iPad Pro and the Asus Transformer, which are not taken into account by IDC.
+In the top vendors list too, the firm has a different opinion. According to IDC, HP is the leading PC vendor, with 21.8% market share followed by Lenovo, Dell, Apple and Acer with respective market share of 20.4%, 15.9%, 7% and 6.8%.
+Talking about the geographical performance, IDC revealed that PC shipment in the U.S. and Asia/Pacific (excluding Japan) (APeJ) slightly declined year over year, while that in Europe, the Middle East and Africa (EMEA) and Japan grew marginally. Notably, sales in Japan witnessed year-over-year growth for the third consecutive quarter.
+Although, both firms reported encouraging first-quarter PC shipment data, their forward looking statements makes us slightly cautious about the prospects of the PC industry. Both firms agreed that the recent surge in DRAM prices and short supply of SSD will lead to an increase in PC prices.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/strong-pc-shipments-witnessed-q1-223910080.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:48:00</t>
+  </si>
+  <si>
+    <t>Cramer investigates why AMD and NVDA's stocks just got ra...</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/cramer-investigates-why-amd-nvdas-224800113.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:55:34</t>
+  </si>
+  <si>
+    <t>In proxy fight, Greenlight says GM misrepresented its stock plan</t>
+  </si>
+  <si>
+    <t>* GM says any such claim "baseless and irresponsible"
+* No other GM investors have yet backed Greenlight proposal
+DETROIT/BOSTON, April 12 (Reuters) - Greenlight Capital nominated three directors to General Motors Co's board on Wednesday and accused the company of misrepresenting to ratings agencies the prominent hedge fund's proposal to split the automaker's common stock into two classes.
+Greenlight manager David Einhorn told Reuters on Wednesday the automaker has refused to allow him to present his proposal to credit agencies for a formal review of how the plan would affect the company's credit risk.
+"We think the credit rating process has been unfairly manipulated," Einhorn said. "We call on GM to allow us to work directly with the credit rating agencies."
+GM fired back that any suggestion the automaker had failed to share Greenlight's proposal in full with the ratings agencies was "baseless and irresponsible."
+Einhorn went public with a proposal in late March that the U.S. automaker create one class of stock that pays a dividend and one that does not, but would be tied to GM's potential growth.
+The move would lower the company's cost of capital, improve financial flexibility and boost market capitalization by as much as $38 billion, Einhorn said.
+No other GM shareholder has yet backed Einhorn's proposal, with Warren Buffett's Berkshire Hathaway Inc remaining conspicuously silent.
+GM has rebuffed Einhorn's proposal, saying it would not help the automaker "sell more cars, drive higher profitability, or generate greater cash flow." Both Moody's and Standard &amp; Poor's have declared such a structure could hurt its credit rating.
+When asked whether Einhorn's claims on Wednesday changed anything, an S&amp;P Global Ratings spokesman referred Reuters to the agency's previous opinion from late March.
+The views of the rating agencies are a key element in the proxy fight that will play out over the next several weeks, unless GM and Einhorn can reach a settlement.
+In the interview, Einhorn said his plan would also allow GM to preserve more of its cash reserves, at a time when some analysts are concerned the U.S. auto industry is heading into a cyclical slowdown.
+"Our proposal is an elegant way to unlock that kind of value without drawing on the cash resources of the company," Einhorn said.
+Greenlight Capital has owned GM shares on and off for five years and now has a 4.9 percent stake, including options.
+GM stock has performed poorly versus its peers and compared with the broader market. GM shares traded on Wednesday afternoon at $34 - just a dollar above the IPO price when the company went public in 2010 after a government-led bankruptcy.
+The disagreement became a full-fledged proxy fight on Wednesday as Greenlight said GM's advisers had no interest "in performing an objective analysis" of Einhorn's proposal.
+In a regulatory filing, Greenlight said GM had then "substantially altered" the term sheet for its proposal before handing it to the ratings agencies and that this different version included "various misrepresentations" of the plan.
+GM said in a statement: "The rating agencies' public statements issued regarding the Greenlight proposal clearly indicate that they understood the idea in all its facets, and would represent a credit negative if implemented. Any suggestion to the contrary is baseless and irresponsible."
+Greenlight on Wednesday nominated former AT&amp;T Broadband Chief Executive Officer Leo Hindery, longtime Greenlight research director Vinit Sethi and Consol Energy Inc Chairman William Thorndike to the automaker's board of directors.
+Einhorn himself was not on the proposed slate.
+Sethi was involved in talks with GM on Greenlight's proposal going back to last September.
+Einhorn's fund has returned an annualized 16 percent since the firm's launch in 1996 but its gains have been more muted recently with an increase of only 1.5 percent in the first three months of 2017.
+Einhorn's fight with GM marks the first time since taking on Apple Inc in 2013 that the closely watched fund manager has pressed management publicly to make changes, taking a page from the playbooks of so-called activist hedge funds like Jana Partners and Pershing Square Capital Management.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/pushing-two-stock-plan-greenlight-141251096.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-13</t>
+  </si>
+  <si>
+    <t>00:10:14</t>
+  </si>
+  <si>
+    <t>Apple has a secret team working on the holy grail for treating diabetes</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/dc1b1c61-751b-3bd6-95dd-ef47c4d086df/104401195?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104401195&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:14:11</t>
+  </si>
+  <si>
+    <t>PayPal vs. Visa: Which Mobile Payment Stock Should You Buy?</t>
+  </si>
+  <si>
+    <t>Over the last several years, mobile payment methods have pushed their way into the transaction scene and onto the national stage with the likes of Apple Inc.’s AAPL Apple Pay, Alphabet Inc.’s GOOGL Android Pay, and Samsung Pay grabbing headlines.
+It seems clear that the long-term transition to a more cashless, mobile payment-based society is underway. But it is still very much just getting out of the starting blocks.
+Checks and cash still account for nearly 85% of payment transactions around the world, but mobile payment has gained traction. A reported 39% of U.S. mobile phone users made a mobile payment in 2015, and the number could climb to nearly 70% by 2017.
+Still, a recent Wall Street Journal report suggeststhat only 13% of the estimated 680 million iPhone users have used Apple Pay.
+This leaves room for payment giants PayPal Holdings, Inc. PYPL and. Visa Inc. V to grow exponentially. PayPal helped revolutionize e-commerce, and Visa is a credit card king, but now both companies could benefit from investments in mobile payment.
+In 2017, consumers will spend an estimated $780 billion globally via their mobile devices. According to some estimations, $503 billion worth of via mobile payments could be made in stores in the U.S. alone by 2020.
+Europe and Australia are leading the way in the shift to mobile and contactless payment, and Visa has placed itself in the drivers seat. In Europe, based on Visa data, 1-in-5 Visa payments were made via contactless mobile credit cards between May 2015 and April 2016, amounting to a total of 3 billion contactless Visa transactions.
+Visa’s payWave contactless mobile point-of-sale systems were available at 3.2 million POS terminals during that same time. The credit card giant expects the service to be available at all Visa POS terminals in Europe by 2020.
+In Australia, an estimated 59% of the population made a purchase with a contactless card in 2016. Visa also recently began experimenting with innovative ways for consumers to use contactless payment methods. Visa, with the help of an Australian startup, introduced contactless payment-enabled sunglasses at a few music festivals in early 2017.
+After spinning off from eBay in 2015, PayPal also joined the mobile payment movement as the once revolutionary company began to seek out new ways to innovate. U.S. consumers will soon be able to make mobile payments using their PayPal mobile wallet at every store that currently accepts Visa payWave.
+PayPal also owns millennial peer-to-peer mobile payment powerhouse Venmo, which could also set them up well for the future. The app recorded more than $1 billion worth of transactions in January 2016 alone.
+Less than 4 million merchants in 2016 accepted Apple Pay—over 10 million accepted Visa. Apple was thought to soon take over, but its lack of availability has helped place Visa and PayPal ahead of the mobile payment curve in the U.S.
+As we jump into the head-to-head comparison between PayPal and Visa, let’s check out a few key stats from both companies:
+Visa and PayPal are both Zacks Rank #2 (Buy). Over the last year, both companies have also surpassed earnings expectations. Both Visa and PayPal have very strong comparable P/E ratios, with Visa holding a small edge.
+Maybe most impressively, Visa and PayPal have strong projected EPS growth. Visa and PayPal both are set to grow profits by double digits based on their massive projected EPS growth numbers, which is never bad news.
+Both companies have an overall Value, Growth, Momentum Zacks Style Score of a “D,” which means both stocks have room to improve in these areas. Visa earned a “C” grade for Growth, and “D” for Value, meaning it does not present the most bang for your buck at this moment. PayPal earned a “C” grade for Growth and Value.
+One thing that might give PayPal an advantage heading into earning season is that Visa currently has a negative Earnings ESP, which means Visa’s most recent earnings estimates have been lower than the overall Zacks Consensus Estimate. This makes surprise predictions more difficult.
+Both companies have actively tried to look for different ways to improve growth potential and revenue streams.
+Visa’s market cap is currently $206.39 billion, and its stock price has risen steadily. The credit card giant’s stock is trading for just under its all-time high at roughly $89 per share. PayPal’s market cap is $52.71 billion, and its stock is also trading at a near all-time high of $44 per share.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/paypal-vs-visa-mobile-payment-231411223.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>New iPhone Delay Hits Apple's Ambitious Plans</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ff5cfe44-f62d-376f-b40e-8843ebd6ec8b/apple-iphone8-missing-vr-ar-augmented-reality?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>If Trump Likes Low Rates Then Yellen Should Be 'Toast'</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3166af32-9768-333b-9b5a-bde57497b104/if-trump-likes-low-rates-then-yellen-should-be-toast?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:31:00</t>
+  </si>
+  <si>
+    <t>Apple, Inc. Could Increase Its Dividend for Years to Come</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/961080c5-38d3-35c9-8492-cdc591179a28/apple-inc-could-increase-its-dividend-for-years-to.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:32:23</t>
+  </si>
+  <si>
+    <t>Apple working on high-tech sensors for diabetics: report</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5f3ef02a-a897-3e1f-bf35-4e34cc0e1759/Story.aspx?guid=90C991A7-BC94-4B68-B338-116E6F4001CF&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>02:48:42</t>
+  </si>
+  <si>
+    <t>Apple hires secret team for treating diabetes: CNBC</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: An Apple logo is seen in a store in Los Angeles, California, U.S., March 24, 2017. REUTERS/Lucy Nicholson/File Photo
+(Reuters) - Apple Inc has hired a team of biomedical engineers as part of a secret initiative, initially envisioned by late Apple co-founder Steve Jobs, to develop sensors to treat diabetes, CNBC reported citing three people familiar with the matter.
+The engineers are expected to work at a nondescript office in Palo Alto, California, close to the corporate headquarters, CNBC said. (http://cnb.cx/2nGgn9P)
+The news comes at the time when the line between pharmaceuticals and technology is blurring as companies are joining forces to tackle chronic diseases using high-tech devices that combine biology, software and hardware, thereby jump-starting a novel field of medicine called bioelectronics.
+Last year, GlaxoSmithKline Plc and Google parent Alphabet Inc unveiled a joint company aimed at marketing bioelectronic devices to fight illness by attaching to individual nerves.
+U.S. biotech firms Setpoint Medical and EnteroMedics Inc have already shown early benefits of bioelectronics in treating rheumatoid arthritis and suppressing appetite in the obese.
+Other companies playing around the idea of bioelectronics include Medtronic Plc , Proteus Digital Technology, Sanofi SA and Biogen Inc .
+The company's shares were marginally up after the bell on Wednesday.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-hires-secret-team-treating-014842916.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>04:44:34</t>
+  </si>
+  <si>
+    <t>141.80</t>
+  </si>
+  <si>
+    <t>Stock Futures: Listen To These 3 Banks, Watch Opticals; Apple Gets 360° Review</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c129c291-ad91-3ed8-95e0-863bfb741fd6/futures-listen-to-these-3-megacaps-watch-this-optical-stock-apple-gets-360-review?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>21:41:02</t>
+  </si>
+  <si>
+    <t>Investors aren’t putting much stock in the Apple/Disney takeout talk</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1aa2e7ef-c2f2-34cf-9c38-17ab7bdf1ea5/104403735?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104403735&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:38:08</t>
+  </si>
+  <si>
+    <t>Apple is buying so many trees for its California campus, competition is reportedly getting cutthroat</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c9cd6299-0b7b-3c04-a9e4-843e55b46955/104403327?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104403327&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:54:09</t>
+  </si>
+  <si>
+    <t>Here's how dependent some companies are on Apple's success</t>
+  </si>
+  <si>
+    <t>Apple giveth, and Apple taketh away. That’s the lesson Imagination Technologies, Apple’s longtime supplier of graphics processors, has learned of late. After announcing that the iPhone maker was winding down its use of Imagination’s technology, the company’s stock price promptly fell off a cliff that same day. That came after Apple poached a handful of Imagination’s top executives.
+As this chart from Statista shows, Imagination is far from the only company with a huge dependency on Apple. While firms like Cirrus Logic, Apple’s audio chip supplier, and Dialog Semiconductor, a power-management chip designer, have reached great heights being a part of Apple’s supply chain, their continued success seems to hinge on staying in the giant’s good graces.
+Apple is the world’s most valuable company, so it’s bound to drive a high percentage of some firms’ revenue. And the likes of Glu Mobile, a mobile games maker, and Foxconn, the manufacturing titan, aren’t in any danger of being directly replaced by Apple the way Imagination was. But being so reliant does reinforce Apple’s position of power as it puts its devices together. It also limits how high a supplier’s share price can go, which explains why Dialog’s stock recently dropped at the hint of Apple making its own power-management tech.
+NOW WATCH: Forget the iPhone 7 — here are 13 reasons the next iPhone will blow everyone away</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/heres-dependent-companies-apples-success-215409198.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:55:00</t>
+  </si>
+  <si>
+    <t>Samsung May Have Put Out Its Fire</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/388613d4-135c-3094-bcf3-a14a01b21960/samsung-may-have-put-out-its-fire-1492120504?mod=yahoobarrons&amp;ru=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:00:09</t>
+  </si>
+  <si>
+    <t>Check out the growing expense big companies like Apple, Intel and Amazon are spending on their CEOs</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8d9ddf16-e893-39ae-8f04-af6055ee354a/check-out-the-growing-expense-big-companies-like.html?ana=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:14:33</t>
+  </si>
+  <si>
+    <t>The payoff would be huge if Apple or Alphabet solved this 'really tough' diabetes problem</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/7ce0c009-f884-3a7b-923f-0c8068f8314b/104403557?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104403557&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:20:00</t>
+  </si>
+  <si>
+    <t>Apple-Disney merger is fiction</t>
+  </si>
+  <si>
+    <t>Jim Cramer is not convinced by Thursday's RBC analyst notes suggesting Apple might acquire Disney.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/apple-disney-merger-fiction-222000796.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:33:13</t>
+  </si>
+  <si>
+    <t>Cramer: Like 'The Lion King,' an Apple-Disney merger is fiction</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c5dd178e-00a1-3199-b1b4-72ce4cdd973e/104403169?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104403169&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:49:00</t>
+  </si>
+  <si>
+    <t>Cramer: Like 'The Lion King,' an Apple-Disney merger is f...</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/cramer-lion-king-apple-disney-224900940.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:59:00</t>
+  </si>
+  <si>
+    <t>Cramer Remix: The stock where the smart money’s staying</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/cramer-remix-stock-where-smart-225900602.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-14</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>Apple Inc. Supplier Talks About A11 Chip Tech</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/858cd0da-a9f2-38d6-bf6f-6a62aedeb8f7/apple-inc-supplier-talks-about-a11-chip-tech.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Cramer: How Could We Not Talk About Rumored Apple-Disney Deal?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/7e88ae42-d1dc-31f8-aa6f-6387dc3b73ea/cramer-how-could-we-not-talk-about-rumored-apple-disney-deal?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:49:00</t>
+  </si>
+  <si>
+    <t>Worries Over Inventories, Chinese Smartphones and Apple are Producing a Chip Stock Speed Bump</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/06746f56-c12d-3a57-b121-9ace3e4210d1/worries-over-inventories-chinese-smartphones-and-apple-are-producing-chip-stock-speed-bump?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>Massive iPhone 8 Leak Reveals 10 New Features</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/16aa4ba9-b18c-349a-b82b-4df943951919/massive-iphone-8-leak-reveals-10-new-features?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>02:08:00</t>
+  </si>
+  <si>
+    <t>Better Buy: Skyworks Solutions vs. Cirrus Logic</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/b37f4c3c-3e96-3343-ab2b-619028ad03f4/better-buy-skyworks-solutions-vs-cirrus-logic.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>04:33:37</t>
+  </si>
+  <si>
+    <t>Toshiba Stock Pares Losses on Report of Apple Investing in Chips</t>
+  </si>
+  <si>
+    <t>A Toshiba Corp. logo is seen on a memory module in this arranged photograph taken in Tokyo, Japan, on Sunday, Feb. 19, 2017. To stay afloat, Toshiba says it may have to sell a majority stake in its last remaining crown jewel: its flash-memory business. Photographer: Tomohiro Ohsumi/Bloomberg
+Toshiba Corp. shares recovered after Japan’s national broadcaster reported that Apple Inc. is considering an investment of several billion dollars in its semiconductor unit, raising the prospect that the struggling electronics conglomerate will get a much-needed cash infusion.
+Toshiba has put its memory chips business up for sale to make up for a writedown of 716.6 billion yen ($6.56 billion) in its U.S. nuclear equipment operations. One option being considered is an investment accompanied by Toshiba holding shares, so that a majority of the semiconductor unit will be held by U.S. and Japanese interests, satisfying the respective governments, NHK said.
+More from Bloomberg.com: U.S. Drops the Military's Biggest Non-Nuclear Bomb in Afghanistan
+Yukihito Uchida, a spokesman for Toshiba, declined to comment on Apple’s involvement and the NHK article.
+Toshiba shares were down 4.3 percent at 12:58 p.m. in Tokyo, after declining as much as 8.1 percent during morning trade. The stock is down about 29 percent this year.
+While Toshiba has been narrowing the field of interested buyers, there are also signs the process is being put on hold after joint-venture partner Western Digital Corp. warned a sale may violate a contract it has with Toshiba. An Apple bid would add another layer of complexity, given its large cash position and influence as the maker of iPhones. Toshiba’s memory chips are used in smartphones, personal computers and data centers, putting them at the heart of a shift away from hard disk drives.
+Toshiba has narrowed the original group of contenders for the chip business after a first round of bidding. Taiwan’s Hon Hai Precision Industry Co. has indicated its willingness to pay as much as 3 trillion yen for the unit, Bloomberg has reported.
+More from Bloomberg.com: Bill O'Reilly Presents $200 Million Challenge to Fox's CEO
+Hon Hai could take a stake of about 30 percent stake and have parties including Apple and Japanese companies also invest in the chip company, in order to alleviate Japanese government concerns about loss of technology overseas, NHK reported.
+The Yomiuri newspaper said last month that Apple was among the bidders for the chips unit.
+Updates with shares in first paragraph.
+Read Toshiba Stock Pares Losses on Report of Apple Investing in Chips on bloomberg.com</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/toshiba-stock-pares-losses-report-033337367.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>04:43:31</t>
+  </si>
+  <si>
+    <t>Apple considering multi-billion dollar investment in Toshiba chip unit: NHK</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: An Apple logo is seen in a store in Los Angeles, California, U.S., March 24, 2017. REUTERS/Lucy Nicholson/File Photo
+TOKYO (Reuters) - Apple Inc (AAPL.O) is considering investing at least several billion dollars in the chip business put up for sale by Toshiba Corp &lt;6502.T&gt;, public broadcaster NHK reported, citing an unidentified source.
+Apple wants to take a stake of more than 20 percent in Toshiba's chip business, while convincing Toshiba to maintain a partial stake to keep the business under U.S. and Japanese control to allay the Japanese government's concerns, the report said.
+Appls is considering a plan in which Taiwan's Foxconn (2317.TW) would also own a stake of around 30 percent in its bid, it added.
+Toshiba is now in the process of selling its memory chip unit to raise cash to cover writedowns at U.S. nuclear unit Westinghouse that have plunged it into crisis.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-considering-multi-billion-dollar-034331525.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>04:54:56</t>
+  </si>
+  <si>
+    <t>[$$] Tech Shares Fade as Earnings Approach</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/f10374d5-4cad-33cc-85a0-e1b65774448b/tech-shares-fade-as-earnings-approach-1492114539?ru=yahoo?mod=yahoo_itp&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>05:00:24</t>
+  </si>
+  <si>
+    <t>Technology stocks closed modestly lower today, outperforming the weakness in the broader market heading in to the holiday weekend. The Nasdaq 100 (QQQ) fell 0.4% while the S&amp;P 500 (SPY) fell 0.7%, marking a two-month closing low.
+The Nasdaq 100 (QQQ) is quickly approaching support at the 130 level, near its 50 day moving averages. The S&amp;P 500 broke through its 50-day moving average yesterday after bouncing of the key support level on Tuesday.
+Semiconductors (SMH) got crushed this week, falling 3.6%. British Dialog Semiconductor fell 14% this week on reports that Apple (AAPL) may bring some of its chip business in house. This sparked some concern among Apple's massive supply chain, mostly chip makers. While the largest company in the world is great customer to have, customer concentration is a risk that also weighs on a stock;s earnings multiple. Semiconductors have had a huge run so a pullback seemed due but the iPhone 8 cycle is still in front of us.
+Applied Optoelectronics (AAOI) raised first quarter guidance last night. The company has now reported four consecutive blow-out quarters. The stock closed up 11% after gapping up over 20%.
+Yext (YEXT) priced a 10.5 million share IPO at $11, above the $8-10 expected range. The stock opened at $14 and closed at $13.41. YEXT describes itself as a "knowledge engine" whose platform allows businesses to manage their digital knowledge (structured information that a business wants to make publicly accessible like addresses, phone numbers, menu details etc.) in the cloud and to sync it to services and platforms across the web.
+As a reminder, the equity markets are closed tomorrow for Good Friday.
+Next week, earnings first quarter earnings season will start in earnest:</t>
+  </si>
+  <si>
+    <t>05:07:53</t>
+  </si>
+  <si>
+    <t>141.05</t>
+  </si>
+  <si>
+    <t>Apple may team with Foxconn to bid on Toshiba's chip business: report</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/31f39bcd-6414-3905-8cc1-3290f076dcb7/Story.aspx?guid=2167540C-373F-4474-91C2-039AD994EC4A&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>05:24:31</t>
+  </si>
+  <si>
+    <t>Apple considers bidding for Toshiba's chip business: report</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: An Apple logo is seen in a store in Los Angeles, California, U.S., March 24, 2017. REUTERS/Lucy Nicholson/File Photo
+TOKYO (Reuters) - Apple Inc (AAPL.O) is considering teaming up with its supplier Foxconn to bid for Toshiba Corp's &lt;6502.T&gt; semiconductor business, public broadcaster NHK said on Friday - the latest twist in the sale of the world's second-biggest flash memory chipmaker.
+Apple is considering investing at least several billion dollars to take a stake of more than 20 percent in a plan that would have Toshiba maintain a partial stake to keep the business under U.S. and Japanese control, NHK reported, citing an unidentified source.
+The proposal is aimed at allaying the Japanese government's concerns over any transfer of sensitive technology to investors it deems a risk to national security, it said.
+Apple was not immediate available to comment. Taiwan's Foxconn, formally known as Hon Hai Precision Industry (2354.TW), declined to comment.
+The report comes as Western Digital Corp (WDC.O), Toshiba's partner and one of the bidders of its chip business, warned this week that the Japanese firm is violating a joint venture contract in plans to sell to its chip unit, and urged that it be given exclusive negotiating rights.
+Toshiba has narrowed down the field of bidders for its chip unit to four suitors, sources have said previously.
+They are U.S. chipmaker Broadcom Ltd (AVGO.O), which has partnered with private equity firm Silver Lake Partners LP; South Korean chip maker SK Hynix &lt;000660.KS&gt;; Foxconn, the world's largest contract electronics maker, and Western Digital.</t>
+  </si>
+  <si>
+    <t>Toshiba Pares Losses on Report of Apple Investing in Chips</t>
+  </si>
+  <si>
+    <t>A Toshiba Corp. logo is seen on a memory module in this arranged photograph taken in Tokyo, Japan, on Sunday, Feb. 19, 2017. To stay afloat, Toshiba says it may have to sell a majority stake in its last remaining crown jewel: its flash-memory business. Photographer: Tomohiro Ohsumi/Bloomberg
+Toshiba Corp. shares recovered after Japan’s national broadcaster reported that Apple Inc. is considering an investment of several billion dollars in its semiconductor unit, raising the prospect that the struggling electronics conglomerate will get a much-needed cash infusion.
+Toshiba has put its memory chips business up for sale to make up for a writedown of 716.6 billion yen ($6.56 billion) in its U.S. nuclear equipment operations. One option being considered is an investment accompanied by Toshiba holding shares, so that a majority of the semiconductor unit will be held by U.S. and Japanese interests, satisfying the respective governments, NHK said.
+More from Bloomberg.com: U.S. Drops the Military's Biggest Non-Nuclear Bomb in Afghanistan
+Yukihito Uchida, a spokesman for Toshiba, declined to comment on Apple’s involvement and the NHK article.
+Toshiba shares were down 4.8 percent at 1:56 p.m. in Tokyo, after declining as much as 8.1 percent during morning trade. The stock is down about 29 percent this year.
+While Toshiba has been narrowing the field of interested buyers, there are also signs the process is being put on hold after joint-venture partner Western Digital Corp. warned a sale may violate a contract it has with Toshiba. An Apple bid would add another layer of complexity, given its large cash position and influence as the maker of iPhones. Toshiba’s memory chips are used in smartphones, personal computers and data centers, putting them at the heart of a shift away from hard disk drives.
+Toshiba has narrowed the original group of contenders for the chip business after a first round of bidding. Taiwan’s Hon Hai Precision Industry Co. has indicated its willingness to pay as much as 3 trillion yen for the unit, Bloomberg has reported.
+More from Bloomberg.com: Bill O'Reilly Presents $200 Million Challenge to Fox's CEO
+Hon Hai could take a stake of about 30 percent stake and have parties including Apple and Japanese companies also invest in the chip company, in order to address Japanese government concerns about loss of technology overseas, NHK reported. Hon Hai has asked SoftBank Group Corp. for help with its bid for the chips business, the Nikkei reported Friday.
+The Yomiuri newspaper said last month that Apple was among the bidders for the chips unit.
+Read Toshiba Pares Losses on Report of Apple Investing in Chips on bloomberg.com</t>
+  </si>
+  <si>
+    <t>09:38:27</t>
+  </si>
+  <si>
+    <t>Apple Said to Consider Helping Toshiba With Chip Unit Investment</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/6fb7bbf6-d911-39bb-b149-f304b5d416ec/apple-said-to-consider-helping-toshiba-with-chip-unit-investment?utm_source=yahoo&amp;utm_medium=bd&amp;utm_campaign=headline&amp;cmpId=yhoo.headline&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple May Be Coming to Toshiba’s Rescue</t>
+  </si>
+  <si>
+    <t>10:33:06</t>
+  </si>
+  <si>
+    <t>[$$] Qualcomm's Apple Bills May Pile Up</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/97efd197-4a27-359b-8f74-2305cdc8682c/qualcomms-apple-bills-may-pile-up-1492162382?mod=yahoo_hs&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>04:41:29</t>
+  </si>
+  <si>
+    <t>Apple considering multi-billion dollar investment in Toshiba chip unit - NHK</t>
+  </si>
+  <si>
+    <t>TOKYO, April 14 (Reuters) - Apple Inc is considering investing at least several billion dollars in the chip business put up for sale by Toshiba Corp, public broadcaster NHK reported, citing an unidentified source.
+Apple wants to take a stake of more than 20 percent in Toshiba's chip business, while convincing Toshiba to maintain a partial stake to keep the business under U.S. and Japanese control to allay the Japanese government's concerns, the report said.
+Appls is considering a plan in which Taiwan's Foxconn would also own a stake of around 30 percent in its bid, it added.
+Toshiba is now in the process of selling its memory chip unit to raise cash to cover writedowns at U.S. nuclear unit Westinghouse that have plunged it into crisis.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-considering-multi-billion-dollar-034129612.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>11:36:21</t>
+  </si>
+  <si>
+    <t>Investors think Apple shares are a safe haven — but they’re making a mistake</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/36e34ea5-2040-3ea1-949f-b659efca7d95/Story.aspx?guid=CD2A7018-2071-11E7-B84D-D6BABCE7778B&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:35:43</t>
+  </si>
+  <si>
+    <t>What Do Analysts Recommend for Apple in April 2017?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8451ad65-8649-3bc5-9c8e-59bd3a6011b0/what-do-analysts-recommend-for-apple-in-april-2017?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:55:02</t>
+  </si>
+  <si>
+    <t>Apple Wins Patent for Data Collection, Automation Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most people follow certain routines: going to bed and rising at the same time; going to work and leaving at the same time; or playing golf every Saturday morning. But people might also follow routines they aren't even aware of.
+That's where a patent granted to Apple Inc. (AAPL) last week comes in. Instead of just changing a setting, the company has described a method for customizing a "computing device" in which the device senses what a user is doing, collects data on those actions, finds the repetitive connections among those data and suggests to the user a "prospective automation setting," including the properties of the proposed setting.
+ALSO READ: 32 Huge Brands Pulling Ads From 'The O'Reilly Factor'
+In late March, Apple acquired automation app Workflow, which allows users to create their own macro commands by creating a string of functions from other apps to automate certain repetitive tasks.
+Here is an example from Apple's patent application:
+As for the first step of collecting data, the method can collect data of user activities based on the user's routine behavior of using certain options or turning on/off certain options on a device (e.g., turn off phone ringing). The activities data collected can also include time, location, or some other significant variables, so the dependence of the activities on these variables can be determined. As an example, phone ringing can be turned off for certain time period (e.g., during Monday 8 am-9 am weekly meeting) and location (e.g., at work). As for the second step of learning about the user's behavior, background software can be used to collect, compute, and analyze data for a given period of time. In particular, the method can collect data for 50 or 100 repetitive operations (e.g., 50 or 100 times of turning off phone ringing) or the method can collect data for a certain number of days (e.g., collect data for three weeks). In the third step, the method generates an automation setting (e.g., turn off phone ringing during Monday 8 am-9 am weekly meeting) of the device based on the user's behavior, and then presents the automation setting of the device to the user for customization of the device. In particular, the method can present the automation setting to the user as a workflow or a pictorial flow chart of operation (e.g., if time is Monday 8 am-9 am, then turn off phone ringing). Then the user can accept the automation setting with a single swipe, or further fine tune the automation setting (e.g., change the automation setting to be "if time is Monday 8 am-9 am and the location is at work, then turn off phone ringing") before accepting it.
+ALSO READ: Most (and Least) Tax-Friendly States for Business
+Here's an illustration of this example from the patent application:
+Will this feature be part of iOS 11 and ship with the iPhone 8? Boy Genius Report suggests it's possible, but there's no reason (yet) to believe it will happen.
+</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-wins-patent-data-collection-115502915.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:02:51</t>
+  </si>
+  <si>
+    <t>Apple considers bidding for big stake in Toshiba chip business: report</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: An Apple logo is seen in a store in Los Angeles, California, U.S., March 24, 2017. REUTERS/Lucy Nicholson/File Photo
+TOKYO (Reuters) - Apple Inc is considering teaming up with its supplier Foxconn to bid for Toshiba Corp's semiconductor business, Japanese public broadcaster NHK reported on Friday - the latest twist in the sale of the world's second-biggest flash memory chipmaker.
+The U.S. technology giant is considering investing at least several billion dollars to take a stake of more than 20 percent as part of a plan that would have Toshiba keep a partial holding so the business remains under U.S. and Japanese control, NHK reported, citing unidentified sources.
+The idea would be to allay Japanese government concerns about any transfer of sensitive technology to investors it deems a potential risk to national security, the broadcaster said.
+Apple was not immediately available to comment. Taiwan's Foxconn, formally known as Hon Hai Precision Industry, declined to comment. A Toshiba spokesman said he could not comment on specific transactions.
+Foxconn, which participated in the first round of the chip sale auction, has been considered a national security risk due to its ties with China. The bulk of Apple's iPhones are made at Foxconn's extensive manufacturing base there.
+NHK said Apple wants Foxconn to own a stake of around 30 percent of Toshiba's chip business.
+An investment by Apple would be its first direct stake in a major global memory chipmaker, as it seeks to secure a stable supply of key components. Samsung Electronics is the biggest maker of flash memory chips, followed by Toshiba, SK Hynix and U.S.-based Micron Technology Inc.
+The NHK report comes as Western Digital Corp, Toshiba's partner and one of the bidders for its chip business, warned this week that the Japanese firm's plans to sell its chip unit violates a joint venture contract. Western Digital wants to be given exclusive negotiating rights.
+The auction of Toshiba's prized chips asset is essential to the company's plans to cover multi-billion dollar writedowns at its U.S. nuclear unit Westinghouse. Those costs have plunged the Japanese conglomerate into crisis, prompting it even to warn that it may not be able to continue as a going concern.
+Toshiba has narrowed the field of bidders for its chip unit to four suitors, sources have said: U.S. chipmaker Broadcom Ltd, which has partnered with private equity firm Silver Lake Partners LP; SK Hynix; Western Digital; and Foxconn, the world's largest contract electronics maker.
+Apple was not part of any of those four bids, according to the person. It's unclear whether Apple participated in the first round of the auction, which sources have said drew around 10 offers.
+Shares in Toshiba fell more than 5 percent on Friday, hit by a Bloomberg report that the chip business sale had been temporarily put on hold to address the concerns raised by Western Digital.
+"It is not true Toshiba has put the chip sale process on hold," a spokesman said.
+Separately, Toshiba is likely to get the go-ahead from creditors to offer its chip business stake as collateral for new loans and loan commitments worth around 1 trillion yen, people briefed on the matter said.
+Access to fresh funds would help tide Toshiba over before it can complete the sale of the chips business.
+Some small lenders have baulked at the idea as they have been offered other Toshiba assets as collateral, such as group companies' shares and real estate, but Toshiba's main lenders expect all creditors to approve the move, the people said.
+In exchange for the chip unit stake as collateral, Toshiba hopes to get about 300 billion yen in fresh loans and be able to draw down existing loan commitments worth 680 billion yen.
+An executive at one of the main creditor banks said it was still uncertain if Western Digital would agree to Toshiba offering its chip unit stake as collateral.
+"We would be running risks of being sued by our shareholders if we provide loans to Toshiba without collateral," the executive said.</t>
+  </si>
+  <si>
+    <t>This Apple Inc. Supplier Might Have Caught a Break</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/d9fde0b4-451c-39dc-8f12-adb755d0b9c4/this-apple-inc-supplier-might-have-caught-a-break.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:05:43</t>
+  </si>
+  <si>
+    <t>Will the Next Apple Watch Launch This Year?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bce8ace0-2804-3266-90e9-93af443766d9/will-the-next-apple-watch-launch-this-year?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Intel Corporation&amp;apos;s New Fab Filler</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8f2459dc-37d3-3e4a-8d84-ba1183e4a635/intel-corporations-new-fab-filler.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Should You Be Worried About the Chip Stock Sell-Off This Week?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/750ce362-682e-3ebe-bcde-931c8491ddf7/worries-over-inventories-chinese-smartphones-and-apple-are-producing-a-chip-stock-speed-bump.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:09:00</t>
+  </si>
+  <si>
+    <t>Apple Reportedly Bidding for Embattled Toshiba's Storage Unit</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3f0c2e47-9b1b-302a-a7ae-1ac4d25efd38/apple-reportedly-bidding-for-embattled-toshiba-s-storage-unit.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:35:57</t>
+  </si>
+  <si>
+    <t>Cypress USB-C in 2H17: Key Drivers</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/63c18d6c-2393-306d-ad35-010bbbf68fb9/cypress-usb-c-in-2h17-key-drivers?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:40:13</t>
+  </si>
+  <si>
+    <t>Apple may invest billions to keep Toshiba afloat, report says</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/bcffd957-fce7-3d0e-a614-a6f9aa2af91a/apple-may-invest-billions-to-keep-toshiba-afloat.html?ana=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:48:00</t>
+  </si>
+  <si>
+    <t>Apple Faces New MacBook Pro Problems</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/6cfb1ec6-c515-3169-bfd9-49aab9870cd0/apple-macbook-pro-popping-sound-problem?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>MacBook Pro Faces New 'Popping' Problem</t>
+  </si>
+  <si>
+    <t>15:55:41</t>
+  </si>
+  <si>
+    <t>One of Kendrick Lamar's producers makes beats on his iPhone — but he has a problem with the iPhone 7</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar's highly anticipated album "Damn." started streaming online on Friday, and it's already receiving lots of acclaim.
+The record sounds lush, like it was carefully recorded and mastered by professionals in a studio. But one of the tracks on the record had its beat made on an iPhone.
+Wired's David Pierce wrote a sweet profile of Steve Lacy, a young musician who is currently breaking out as a member of the band The Internet. He also produced the beat for the new Kendrick Lamar song "Pride" using GarageBand on his phone.
+Lacy prefers to use his iPhone, even though he has access to laptops and other professional studio recording gear.
+"I like to make music wherever I am," Lacy told Wired, saying that he made beats on his phone before he got access to professional studios. "I got this piece called the iRig, I saw you could plug it into your iPhone, they got amps on here, see what cool guitar sounds I could get."
+There's just one problem with the iRig: the model Lacy uses needs a 3.5mm headphone jack to plug into — and the newest iPhone 7 doesn't have one. (There's a new model that works with the iPhone 7.)
+So now Lacy uses two phones — an older, cracked iPhone for recording guitar and bass through his iRig adapter, and a new iPhone 7 that he uses to listen and compose his tracks on through Beats headphones.
+NOW WATCH: People on Twitter are roasting United Airlines after a passenger was forcibly dragged off a plane</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/one-kendrick-lamars-producers-makes-145541066.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Pokémon GO's Easter Eggstravaganza Event Is Its Weirdest Yet</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/d3e2b327-865c-3045-b132-ff2bc95ab5dd/pokemon-gos-easter-eggstravaganza-event-is-its-weirdest-yet?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:41:00</t>
+  </si>
+  <si>
+    <t>Apple, Inc. Keeps Losing Ground in China</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c3301ea3-c4eb-3cba-8dcb-ee4eee3fc796/apple-inc-keeps-losing-ground-in-china.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:28:00</t>
+  </si>
+  <si>
+    <t>It Costs $400 For A Full Un'goro Expansion Card Set In 'Hearthstone'</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/a79be70b-bc86-393d-b3ee-816813b1c32f/it-costs-400-for-a-full-ungoro-expansion-card-set-in-hearthstone?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:35:14</t>
+  </si>
+  <si>
+    <t>Apple obtains permission to test driverless cars</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/7be2e307-c6b7-3a16-a42a-3b38d9120a6e/Story.aspx?guid=B8DAB525-3E2A-41A7-BFD3-2FEECC8ED085&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:44:27</t>
+  </si>
+  <si>
+    <t>Apple Said to Near Road Tests of Self-Driving Car Software</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ed337a50-7d8a-3b19-baab-c7c453ae9962/apple-gets-dmv-approval-to-test-self-driving-cars-in-california?utm_source=yahoo&amp;utm_medium=bd&amp;utm_campaign=headline&amp;cmpId=yhoo.headline&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:59:50</t>
+  </si>
+  <si>
+    <t>Call of the week: Wall Street speculates Apple-Disney mega merger</t>
+  </si>
+  <si>
+    <t>Apple (AAPL) could potentially reach a multibillion-dollar deal to acquire Disney (DIS), creating a company that would “be massive, with enough cash and balance sheet capacity to change the nature of the hardware, service, and content industries.”
+That’s according to a research note from analysts at RBC Capital Markets. Their speculation of a possible deal sent shock waves through Wall Street this week.
+RBC noted three reasons why a deal with Disney would make sense for Apple. They say content is a major focus for the tech giant, target size isn’t an issue and it would diversify Apple away from the iPhone, which has been a big concern for many Wall Street skeptics.
+They went on to say a combined Apple and Disney would accelerate Apple’s push into services and content, and enable the tech giant to “instantly leapfrog Netflix, Amazon and YouTube in content.”
+Now, it’s important to note that even though RBC analysts say the probability of Apple buying Disney is “greater than 0%,” the odds are still low. Historically, Apple has not executed any massive deals. Its largest acquisition on record is its recent $2.2 billion deal to buy Beats Inc. But RBC noted “if there’s a deal out there that would strike fear in the hearts of Silicon Valley and Hollywood, this could be it.”
+RBC Capital reiterated its outperform rating and $155 price target for Apple, and maintained its outperform rating and $130 price target on Disney.
+Disney’s stock closed the week up 0.5% and is up more than 24% in the past six months.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/call-week-wall-street-speculates-apple-disney-mega-merger-165950246.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>Will Apple Inc.&amp;apos;s OLED iPhone 8 Have the Sharpest Retina Display Yet?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5436d107-e7e5-36a7-9724-56ae2f63f163/will-apple-incs-oled-iphone-8-have-the-sharpest-re.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:50:49</t>
+  </si>
+  <si>
+    <t>Apple is testing self-driving cars in California</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/2706d355-55cb-33b8-aab3-1506bf248085/is-an-apple-aapl-car-on-the-way-apple-is-testing-self-driving-cars-in-california?utm_source=YPL&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:53:56</t>
+  </si>
+  <si>
+    <t>RBC Analyst Daryanani Explains Why Apple May Buy Disney</t>
+  </si>
+  <si>
+    <t>Apr.14 -- Amit Daryanani, RBC Capital Markets analyst, explains why he thinks Apple could buy Disney. He speaks with Bloomberg's David Westin on "Bloomberg Daybreak: Americas."</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/rbc-analyst-daryanani-explains-why-175356069.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>18:55:00</t>
+  </si>
+  <si>
+    <t>Apple permitted to test autonomous vehicles on California roads</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/b7ffd54e-e2ab-3b95-a2dd-bc698deaf54b/apple-permitted-to-test-autonomous-vehicles-on-california-roads/#ftag=YHFb1d24ec?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>19:12:59</t>
+  </si>
+  <si>
+    <t>[$$] Apple given licence to test self-driving cars on California roads</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3eb7993b-8d27-310b-b289-d7855959bdc4/665a068c-2134-11e7-a454-ab04428977f9,s01=1.html?ftcamp=traffic/partner/feed_headline/us_yahoo/auddev&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>19:23:00</t>
+  </si>
+  <si>
+    <t>Apple to Test Self-Driving Car Tech on California Roads</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/625c19a3-35e1-3eed-a0c2-c097a687f261/apple-to-bring-self-driving-car-tech-to-california-roads.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:12:21</t>
+  </si>
+  <si>
+    <t>Apple gets to test driverless cars in California</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3849923c-4ffb-387b-8a0a-16ca4e488af5/Story.aspx?guid=E42390EC-2134-11E7-B84D-D6BABCE7778B&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:30:09</t>
+  </si>
+  <si>
+    <t>Apple has engineers looking for the 'holy grail' of life sciences</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/68a7b667-ad93-360c-855d-14393ee6cb95/apple-has-engineers-looking-for-the-holy-grail-of.html?ana=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>WORLD NEWS SCHEDULE AT 2300 GMT/6 PM ET</t>
+  </si>
+  <si>
+    <t>China says North Korea tension has to be stopped from reaching 'irreversible' stage
+BEIJING/PYONGYANG - China says tension over North Korea has to be stopped from reaching an "irreversible and unmanageable stage" as a U.S. aircraft carrier group steams toward the region amid fears the North may conduct a sixth nuclear weapons test. (NORTHKOREA-USA/ (WRAPUP 6, PIX, TV, GRAPHICS), moved, by Dominique Patton and Sue-Lin Wong, 900 words)
+U.S. Vice President Pence heads to Seoul as North Korea tensions flare
+WASHINGTON - U.S. Vice President Mike Pence travels to South Korea on Sunday in what his aides say is a sign of the U.S. commitment to its ally in the face of rising tensions over North Korea's nuclear program. (PENCE-ASIA/ (moved), by Roberta Rampton, 473 words)
+"Right time" to use huge bomb in Afghanistan - U.S. general
+KABUL - The top U.S. military commander in Afghanistan says the decision to deploy one of the largest conventional bombs ever unleashed in combat was purely tactical and made as part of the campaign against Islamic State-linked militants. (USA-AFGHANISTAN/BOMB (UPDATE 7, PIX, TV, GRAPHIC), moved, by Hamid Shalizi and Josh Smith, 1,000 words)
+ISTANBUL - Much like the vast mosque he commissioned atop one of Istanbul's higher hills, President Tayyip Erdogan's supporters hope a referendum on Sunday will be the crowning achievement in his drive to reshape Turkey. (TURKEY-REFERENDUM/PREVIEW (TV, PIX, GRAPHIC), moved, by Nick Tattersall and Humeyra Pamuk, 923 words)
+Iranian President Rouhani to run for second term, faces conservative challenge
+ANKARA - Iranian President Hassan Rouhani registers to run for a second four-year term, state television says, buoyed by Tehran's 2015 nuclear deal with world powers but facing a hard-line conservative challenge over his economic record. (IRAN-ELECTION/ROUHANI (UPDATE 3, PIX, TV), moved, by Parisa Hafezi, 400 words)
+BEIRUT - Buses evacuate thousands of people from two rebel-besieged Shi'ite villages in northwest Syria while hundreds of rebels left a town near Damascus with their families, under a deal between the government and insurgents. (MIDEAST-CRISIS/SYRIA-EVACUATION (UPDATE 4, PIX), moved, by Laila Bassam and John Davison, 575 words)
+France's Ayrault says Assad's comments on Syria chemical attack are "lies"
+BEIJING - French Foreign Minister Jean-Marc Ayrault dismisses as "lies and propaganda" comments by Syrian President Bashar al-Assad that a poison gas attack last week that was blamed on his government in Idlib province was "100 percent fabrication". (MIDEAST-CRISIS/SYRIA-FRANCE (UPDATE 1), moved, 360 words)
+JERUSALEM - A Palestinian man fatally stabs a British woman on Jerusalem's transit network, Israeli police say, as Christians mark Good Friday and Muslims hold prayers at respective holy sites nearby. (ISRAEL-PALESTINIANS/VIOLENCE (UPDATE 1, TV, PIX), moved, 340 words)
+Iraqi Christians return to ransacked town with fear and hope
+QARAQOSH, Iraq - With Islamic State expelled, Iraqi Christians are trickling back to the ransacked town of Qaraqosh, beset by anxiety for their security and yet hopeful they can live in friendship with Muslims of all persuasions. (MIDEAST-CRISIS/IRAQ-CHRISTIANS (PIX, TV), moved, by Ulf Laessing, 1,052 words)
+Hackers released documents and files that cybersecurity experts said indicated the U.S. National Security Agency had accessed the SWIFT interbank messaging system, allowing it to monitor money flows among some Middle Eastern and Latin American banks. (USA-CYBER/SWIFT (UPDATE 1), by Clare Baldwin, 842 words)
+Trump White House will not make visitor logs public, break from Obama policy PALM BEACH, Fla. - The Trump administration will not make public White House visitor logs, the records that detail who has visited President Donald Trump and his staff on official business, his office confirmed, in a departure from a practice that was established under former President Barack Obama. (USA-TRUMP/VISITORS (moved), by Ayesha Rascoe, 364 words) BOSTON - A Boston jury on Friday found former New England Patriots football star Aaron Hernandez not guilty of murdering two men outside a Boston nightclub in 2012, following what prosecutors described as a dispute that began over a spilled drink. (USA-CRIME/HERNANDEZ (UPDATE 2, PIX), by Scott Malone, 506 words) Apple Inc has secured a permit to test autonomous vehicles in California, which allows it to conduct test drives in three vehicles with six drivers, the state Department of Motor Vehicles said on Friday. (APPLE-CAR/ (UPDATE 2), moved, by Jessica Resnick-Ault, 397 words) VW says bought, fixed more than half of polluting 2.0-liter diesels in U.S. WASHINGTON - Volkswagen AG says it has bought back or repaired more than half of 475,000 polluting 2.0-liter diesel vehicles under a U.S. government settlement, just six months after it launched the largest-ever automotive repurchase offer. (VOLKSWAGEN-EMISSIONS/ (UPDATE 1), moved, by David Shepardson, 376 words) SAN FRANCISCO - A California federal judge strongly questions the U.S. Justice Department over whether to suspend an order by President Donald Trump to withhold federal funds from so-called sanctuary cities for immigrants. (USA-IMMIGRATION/SANCTUARY (UPDATE 1), moved, by Robin Respaut, 397 words) PARIS - France's presidential race looked tighter than it has all year on Friday, nine days before voting begins, as two polls put the four front-runners within reach of a two-person run-off vote.(FRANCE-ELECTION/ (UPDATE 3, PIX, TV, GRAPHIC), moved, by Sudip Kar-Gupta and Sarah White, 500 words) BERLIN - German police have arrested three people on suspicion of helping a suspected Islamist militant prepare a bomb attack on police or soldiers, Focus magazine says on its website. (GERMANY-ARRESTS/ (UPDATE 1), moved, 230 words) Turkey says may suspend EU migrant deal if no progress on visas ANKARA - Turkey could re-evaluate or suspend all agreements under its migration deal with the European Union if the bloc does not give a positive response on visa-free travel for Turks, Foreign Minister Mevlut Cavusoglu says. (TURKEY-EU/MIGRANTS (UPDATE 1), moved, 407 words) Uzbekistan says told West that Stockholm attack suspect was IS recruit TASHKENT - Uzbekistan's security services warned a western ally before last week's deadly truck attack in Stockholm that the suspected perpetrator was an Islamic State recruit, Foreign Minister Abdulaziz Kamilov says. (SWEDEN-ATTACK/UZBEKISTAN (UPDATE 2, PIX, TV), moved, 211 words) MOSCOW - Russia's most famous campaigning newspaper says it has appealed to the Kremlin to protect its staff after Chechen clerics warn the paper faces "retribution" for alleging that gay men in Chechnya were being tortured and killed. (RUSSIA-CHECHNYA/NEWSPAPER-THREAT, moved, by Andrew Osborn, 469 words) MOSCOW - Russia's state broadcaster says it will boycott this year's Eurovision song contest after the host country, Ukraine, said it would bar entry to the Russian contestant and Moscow rejected two possible compromises suggested by organisers. (UKRAINE-EUROVISION/RUSSIA (UPDATE 1), moved, 418 words) Two suspects in Congo murder of UN workers arrested; one escapes KINSHASA - Congolese authorities have arrested two people suspected of involvement in the murder of two U.N. workers in central Democratic Republic of Congo, but one of the prisoners has escaped, a senior prosecutor says. (CONGO-VIOLENCE/ (UPDATE 2), moved, by Amedee Mwarabu Kiboko, 416 words) Next 'Star Wars' feature to feature new female character ORLANDO, Fla. - The largely testosterone-fueled Star Wars movie franchise has added an important new female character in the eighth film, "Star Wars: The Last Jedi", director Rian Johnson said on Friday at a fanfest in Orlando. (FILM-STAR WARS/ (moved), by Barbara Liston, 365 words)</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/world-news-schedule-1900-gmt-180329053.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple gets approval to test self-driving cars on California roads</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/625dead1-5ca4-3765-839f-92ac59663373/apple-gets-approval-to-test-self-driving-cars-on.html?ana=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:25:04</t>
+  </si>
+  <si>
+    <t>Apple Will Test Self-Driving Software In California In Busy Autonomous Week</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5279033f-e1c7-38e3-8bd6-2fd896877b71/apple-will-test-self-driving-software-in-california-in-busy-autonomous-week?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>23:33:21</t>
+  </si>
+  <si>
+    <t>The iPhone of cars? Apple enters self-driving car race</t>
+  </si>
+  <si>
+    <t>FILE - This Thursday, Sept. 19, 2013, file photo shows the Apple logo above a store location entrance, in Dallas. Apple will begin testing self-driving car technology in California, its first public move into a highly competitive field that could radically change transportation. The California Department of Motor Vehicles awarded Apple a permit to test autonomous vehicles Friday, April 14, 2017, and disclosed that information on its website. (AP Photo/Tony Gutierrez, File)
+SAN FRANCISCO (AP) -- Apple is joining the fiercely competitive race to design self-driving cars, raising the possibility that a company that has already re-shaped culture with its iPhone may try to transform transportation, too.
+Ending years of speculation, Apple's late entry into a crowded field was made official Friday with the disclosure that the California Department of Motor Vehicles had awarded a permit for the company to start testing its self-driving car technology on public roads in the state.
+The permit covers three vehicles — all 2015 Lexus RX 450h hybrid SUVs — and six individual drivers. California law requires people to be in a self-driving car who can take control if something goes wrong.
+APPLE GOES MOBILE ... IN A NEW WAY
+Apple confirmed its arrival in the self-driving car market, but wouldn't discuss its intentions. Its interest in autonomous vehicle technology, however, has long been clear .
+The Cupertino, California, company pointed to a statement that it issued in December. "
+Apple is investing heavily in machine learning and autonomous systems," the company said then. "There are many potential applications for these technologies, including the future of transportation."
+Apple released that statement after Steve Kenner, a former Ford Motor executive who is now Apple's director of product integrity, notified federal regulators of the company's interest in self-driving cars in a letter.
+Like others, Apple believes self-driving cars could ease congestion and save millions of people who die annually in traffic accidents often caused by drunk or distracted motorists.
+Self-driving cars could also be a lucrative new market. And Apple has been searching for its next act for a while, one that will take it beyond its mainstay phones, tablets and personal computers.
+Although iPhone's ongoing popularity has helped Apple remain the world's most valuable company, the company hasn't had a breakthrough product since the 2010 debut of the iPad, currently in the throes of a three-year sales slump. The dry spell has raised doubts as to whether Apple lost some of its trend-setting magic with the death of co-founder Steve Jobs in 2011.
+Apple will be vying against 29 other companies that already have California permits to test self-driving cars. The list includes major automakers, including Ford, General Motors, BMW, Volkswagen and Tesla, as well as one of its biggest rivals in technology, Google, whose testing of self-driving cars has been spun off into an affiliate called Waymo.
+Since Google began its work on self-driving vehicles eight years ago, Waymo's fleet of self-driving cars has logged more than 2 million miles on the road.
+That means Apple has a long way to catch up in self-driving technology. But it has often been a follower in markets that it eventually revolutionized. It wasn't the first to introduce a digital music player, smartphone, or tablet before its iPod, iPhone and iPad came out.
+With $246 billion in cash, Apple also could easily afford to buy technology that accelerates its development of self-driving cars. There has been recurring speculation that Apple might eventually acquire Tesla, which has a market value of about $50 billion. Neither Apple nor Tesla has given any inkling that they're interested in joining forces, though.
+Speculation about Apple's interest in expanding into automobiles began swirling in 2015 amid media reports that the company had begun secretly working on building its own electric car under the name project "Titan." Apple never confirmed the existence of Titan, which is now believed to be dead.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/iphone-cars-apple-enters-self-221645009.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-15</t>
+  </si>
+  <si>
+    <t>00:04:00</t>
+  </si>
+  <si>
+    <t>3 Stocks We Like More Than NVIDIA</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ac2a0669-fdf4-3e1b-be07-e70902dfe147/3-stocks-we-like-more-than-nvidia.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Android Circuit: Destroying The Galaxy S8, Note 8 Images Leak, Google's Pixel 2 Design</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/084bb9e1-41d8-3262-b8e2-6d3b7c058131/android-google-news-headlines-samsung-s8-s8plus-note8-pixel2?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple Loop: New iPhone Leaks Reveal Apple's Gamble, WWDC Predictions, MacBook Pro Loses Top Spot</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3eca69a4-cf39-3d3a-9b81-d4cf4741c85c/apple-news-headlines-iphome8-leak-rumor-new-wwdc-macbook-pro?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>00:48:49</t>
+  </si>
+  <si>
+    <t>Apple receives permit in California to test self-driving cars: DMV</t>
+  </si>
+  <si>
+    <t>FILE PHOTO: The Apple logo is seen on the facade of the new Apple Store in Paris, France, January 5, 2017. REUTERS/Charles Platiau
+(Reuters) - Apple Inc (AAPL.O) has secured a permit to test autonomous vehicles in California, fuelling speculation that it is working on self-driving car technology in a crowded arena of companies hoping to offer those cars to the masses.
+The permit allows it to conduct test drives in three vehicles with six drivers, the state Department of Motor Vehicles said on Friday. The vehicles are all 2015 Lexus RX450h, according to the DMV.
+Although it has never openly acknowledged it is looking into building an electric car, Apple has recruited dozens of auto experts in recent years, and the permit pulls the curtain back a bit on any possible plan.
+"This does confirm what's long been rumored: that Apple is at least toying with the idea of getting into the autonomous game in some capacity," said Chris Theodore, president of consultancy Theodore &amp; Associates, and a former vice president at Ford Motor Co (F.N) and Chrysler.
+The permit does not mean Apple is definitely building a car. "This is not necessarily automobiles as initially rumored, but software or possibly hardware associated with autonomous technology," Theodore said.
+An Apple spokesman declined to comment directly on the filing, pointing back to a statement the company made in November when it wrote to the U.S. National Highway Traffic Safety Administration (NHTSA) on the subject of regulating self-driving vehicles.
+"The company is investing heavily in the study of machine learning and automation, and is excited about the potential of automated systems in many areas, including transportation," Apple's director of product integrity, Steve Kenner, wrote in that five-page letter.
+Apple executives have been coy about their interest in cars. Chief Executive Tim Cook has suggested that Apple wants to move beyond integration of Apple smartphones into vehicle infotainment systems.
+Apple joins a growing list of traditional carmakers, technology companies, and small start ups to test drive cars in California - all vying to be the first to have commercially viable vehicles on the roads.
+Companies that have been issued permits also include Alphabet Inc's (GOOGL.O) Google unit, Ford Motor Co (F.N), Volkswagen AG (VOWG_p.DE), Daimler AG (DAIGn.DE), Tesla Motors Inc (TSLA.O) and General Motors Co (GM.N).
+Many companies have said the first cars will launch in 2020 but some experts believe it may take much longer due to regulatory challenges.
+Shares of Apple closed down 0.5 percent at $141.05 on Thursday.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-receives-permit-california-test-170322077.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>After The Death of &amp;quot;i&amp;quot; Branding, Will Apple Ditch the iTunes Brand Next?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/da54337f-774f-3129-8b98-ca6715392e10/after-the-death-of-i-branding-will-apple-ditch-the.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>05:20:00</t>
+  </si>
+  <si>
+    <t>[$$] An Apple-Disney Tie-Up Would Smack of Desperation</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/b572397c-c768-3042-876b-71b9eb50eed7/an-apple-disney-tie-up-would-smack-of-desperation-1492230023?mod=yahoobarrons&amp;ru=yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>22:00:10</t>
+  </si>
+  <si>
+    <t>David Rolfe Comments on Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- By Holly LaFon
+ Apple (AAPL) was a top relative and absolute contributor to performance during the quarter. The Company's iPhone franchise continues to dominate profitability share within the smartphone OEM market, after the next most profitable competitor (Samsung) incurred sizable losses from a product recall. Apple continues its long history of maintaining a focused hardware portfolio (relative to competitors), while aggressively innovating its in-house software and services capabilities which enables the narrow hardware portfolio to "act" much wider. For example, Apple's revenue from software and services grew almost 20%, to over $24 billion during fiscal 2016. We think Apple's software and services revenue stream has a very attractive profitability profile that should help offset the financial ebbs and flows inherent in the Company's well-established hardware product cycles. Apple exited the most recent quarter with a fortress-like balance sheet, a byproduct of their prodigious free cash flow generation of about $50 billion or more in each of the last three fiscal years. Rumors of the iPhone's demise have once again been greatly exaggerated. With the pent -up demand for the upcoming iPhone 8, free cash flow may challenge the previous fiscal high of nearly $70 billion generated in fiscal 2015. While the stock has performed superbly over the past few quarters, we have pared back positions purely to limit our absolute weighting. That said, we continue to maintain a healthy overweight relative to the benchmark as we think the market continues to under-appreciate Apple's competitive positioning and long-term opportunities for profitable growth.
+</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/david-rolfe-comments-apple-210010127.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple Loop: New iPhone Leak Reveals Apple's Gamble, Disappointing MacBook Pro, iOS Update Problems</t>
+  </si>
+  <si>
+    <t>Apple has a new iPhone menu that makes it way easier to manage your iCloud account</t>
+  </si>
+  <si>
+    <t>In the latest major software update for iPhones and iPads, iOS 10.3, Apple made it way easier to manage your iCloud account from your iPhone.
+Apple took various important settings — like account security, passwords, credit cards, and photo — and put them in a single, easy-to-access menu atop the Settings app.
+All of these options were available before, but they were scattered around the iPhone's settings. Checking out the new menu is a good opportunity to make sure everything about your iCloud account is correct and locked down.
+It doesn't look like a button, but you can still tap on it. It'll bring you to this menu:
+The button below those three options, iCloud, lets you turn off which apps are using iCloud storage, as well as quickly see how much storage space you have left:
+"iTunes &amp; App Store" is where you can turn off automatic downloads, and you should find a list of Apple products linked to your Apple ID.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/apple-iphone-menu-makes-way-123000718.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>14:15:25</t>
+  </si>
+  <si>
+    <t>Despite Share Price Drop, Apple Still DJIA’s Best Performing Stock of 2017</t>
+  </si>
+  <si>
+    <t>Shares of Apple Inc. (AAPL) dropped $2.29 last week (about 1.6%), closing at $141.05 on Thursday. Markets were closed Friday.
+Even so, it remains the best-performing stock by a wide margin among the 30 equities the comprise the Dow Jones Industrial Average (DJIA). The company's stock is up 21.78% year to date, still well above second-place Boeing's 12.81% improvement.
+Apple stock dropped sharply early Tuesday, likely due to a countersuit filed by Qualcomm in response to Apple's January lawsuit against the chipmaker. Apple has charged Qualcomm with throttling its LTE processors and with abusing its market power. All told, Apple listed 389 specific allegations in its filing.
+In its response, Qualcomm denied all 389 allegations, citing 35 specific defenses to the charges, as well as claiming that the charges are unfounded. There is a lot of money at stake, and these opposing lawsuits will take months or years to sort out.
+Apple also got some bad news from Laptop magazine early last week. In the publication's list of best notebook brands, the MacBook finished fifth behind Lenovo, Asus, Dell, HP and Acer (tied with Apple). The company was taken to task for offering too narrow a range of models, and MacBooks were also judged to be too expensive.
+ALSO READ: The Case for an Apple-Disney Merger, More Hope Than Reality
+Apple shares closed at $141.05 on Thursday, down about 0.5% for the day, in a 52-week range of $89.47 to $145.46. The consensus 12-month price target is $147.61 in a price target range of $104 to $185 per share.</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/news/despite-share-price-drop-apple-131525407.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Armed With A Driver's License Apple May Now Be Focused On The Brains Of Self-Driving Cars</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/ec7ac143-c965-33cf-8e42-23f2809cb632/armed-with-a-drivers-license-apple-may-now-be-focused-on-the-brains-of-self-driving-cars?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Armed With A Driver's License, Apple May Now Be Focused On The Brains Of Self-Driving Cars</t>
+  </si>
+  <si>
+    <t>16:17:00</t>
+  </si>
+  <si>
+    <t>Netflix Opens Techland Earnings Season On Monday, Sentiment Mostly Negative</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/7e3ee2fc-7c9a-3a04-985a-654e61d18bbb/netflix-opens-techland-earnings-season-on-monday-sentiment-mostly-negative?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Here's Why Everyone's Suddenly Talking About Apple Buying Disney</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8e859682-1d6a-3568-b8bb-458985745f4f/here-s-why-everyone-s-suddenly-talking-about-apple-buying-disney.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>16:06:00</t>
+  </si>
+  <si>
+    <t>11 reasons the Samsung Galaxy S8 is better than the Apple iPhone 7 for business</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/e6073388-654d-3aeb-a290-16d10a390121/11-reasons-the-samsung-galaxy-s8-is-better-than-the-apple-iphone-for-business/#ftag=YHFb1d24ec?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:06:00</t>
+  </si>
+  <si>
+    <t>The MacBook Suddenly Mediocre?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/71941f0c-b086-3345-a612-be33f96519b6/the-macbook-suddenly-mediocre?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>DMV Permit Will Require Apple To Shed Light On Plans Regarding Autonomous Vehicle Technology</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/331e9c45-c004-31b4-b3e0-271513b3d88c/dmv-permit-will-require-apple-to-shed-light-on-plans-regarding-autonomous-vehicle-technology?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>11 reasons why Samsung&amp;apos;s Galaxy S8 is better than Apple&amp;apos;s iPhone 7 for business</t>
+  </si>
+  <si>
+    <t>2017-04-16</t>
+  </si>
+  <si>
+    <t>Apple, Inc. Is Pushing Ahead With Testing Self-Driving Cars</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5e8cd38e-4632-328a-bf5f-776e20625e5c/apple-inc-is-pushing-ahead-with-testing-self-drivi.aspx?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Android Circuit: Destroying The Galaxy S8, First Note 8 Images Leak, Google's Pixel 2 Design</t>
+  </si>
+  <si>
+    <t>Apple Loop: New iPhone Leaks Reveal Apple's Gamble, Disappointing MacBook Pro, iOS Update Problems</t>
+  </si>
+  <si>
+    <t>12:00:21</t>
+  </si>
+  <si>
+    <t>A Chevy Bolt Gets You There, but You'll Need a Smartphone for Navigation</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3e61927f-cdcb-3d1c-b081-2a97e6a01a4c/a-chevy-bolt-gets-you-there-but-youll-need-a-smartphone-to-show-you-how-1492340402?mod=yahoo_hs&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>05:00:20</t>
+  </si>
+  <si>
+    <t>13:21:13</t>
+  </si>
+  <si>
+    <t>Eight reasons to consider the Apple iPhone 7 Plus over the Galaxy S8 Plus for business</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/1ee05eac-f88f-38b5-9439-b2ef42d8bcb2/eight-reasons-to-consider-the-apple-iphone-7-plus-over-the-galaxy-s8-plus-for-business/#ftag=YHFb1d24ec?yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>15:21:02</t>
+  </si>
+  <si>
+    <t>This Is The Key Test That Netflix, Facebook And Apple Are Facing</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/20752d7c-65db-34ac-8076-03ee7c844017/this-is-the-key-test-that-netflix-facebook-and-apple-are-facing?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>17:09:12</t>
+  </si>
+  <si>
+    <t>[$$] Avegant wins fresh funding for 'mixed reality' breakthrough</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/883ed3d6-993d-33a9-9ded-79f73821b9fd/9ce5b460-2299-11e7-a34a-538b4cb30025,s01=1.html?ftcamp=traffic/partner/feed_headline/us_yahoo/auddev&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>Samsung Just Revealed Another Huge Clue It Has Developed an Apple iPhone 8 Killer</t>
+  </si>
+  <si>
+    <t>23:40:00</t>
+  </si>
+  <si>
+    <t>As Apple Designs More and More of Its Own Chips, Some Suppliers Should Be Worried</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5779c0a7-9052-3d60-af28-348160cf9e24/as-apple-designs-more-and-more-of-its-own-chips-some-suppliers-should-be-worried.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>00:43:22</t>
+  </si>
+  <si>
+    <t>A Chevy Bolt Gets You There, but You’ll Need a Smartphone to Show You How</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/3e61927f-cdcb-3d1c-b081-2a97e6a01a4c/a-chevy-bolt-gets-you-there-but-youll-need-a-smartphone-to-show-you-how-1492340402?ru=yahoo?mod=yahoo_itp&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>A Strong Start to 2017 for Global Markets in 6 Charts</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/0a9991f4-f22f-3051-af5c-c7fe17d58a9e/article.aspx?id=801979&amp;SR=Yahoo&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Apple and Amazon Are Tanking; Here Comes the Dreaded Bear Market, Right?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/772d8701-6e87-3bbc-bbef-1b6eecafc627/apple-and-amazon-are-tanking-here-comes-the-dreaded-bear-market-right.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>01:25:17</t>
+  </si>
+  <si>
+    <t>Apple Looking to Help Toshiba Semiconductor Unit</t>
+  </si>
+  <si>
+    <t>Apr.16 -- Apple is actively looking at options for helping Toshiba by investing in its semiconductor unit. Bloomberg's Peter Elstrom reports on "Bloomberg Daybreak: Asia."</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/video/apple-looking-help-toshiba-semiconductor-002517629.html?.tsrc=rss</t>
+  </si>
+  <si>
+    <t>09:08:32</t>
+  </si>
+  <si>
+    <t>[$$] Foxconn seeks Apple's backing for Toshiba chip bid</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/2a08cfc1-4e8b-3cd8-8fde-84c908a5daa6/0041eb84-2338-11e7-8691-d5f7e0cd0a16,s01=1.html?ftcamp=traffic/partner/feed_headline/us_yahoo/auddev&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>10:15:00</t>
+  </si>
+  <si>
+    <t>Critics Of Apple Making A Big Acquisition Don't Get It</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/60539614-7d40-326a-813d-6106035112f3/critics-of-apple-making-a-big-acquisition-dont-get-it?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Snapchat Is Being Boycotted in India</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/b0628ae1-5179-3922-9bca-1a39e1c190b7/snapchat-being-boycotted-india-snap-fb?partner=YahooSA&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>11:33:44</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/8d587820-01d8-3186-a368-acc3b10f4d60/todays-top-supply-chain-and-logistics-news-from-wsj-1492424864?mod=yahoo_hs&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>11:38:00</t>
+  </si>
+  <si>
+    <t>Apple Co-Founder Steve Wozniak Says Apple, Google and Facebook Will Be Around in 2075</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/0994ac8f-160c-367a-bed3-8b19e72b5bc3/apple-cofounder-steve-wozniak-says-apple-google-and-facebook-will-be-around-2075-aapl-goog?partner=YahooSA&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:12:41</t>
+  </si>
+  <si>
+    <t>Apple said to be struggling with optical fingerprint sensing</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/7e1aa56e-ebdc-3fbf-ba9c-53efead89629/Story.aspx?guid=A6C15908-29C5-4697-8FC8-F0D008FFBFA0&amp;siteid=yhoof2&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:35:49</t>
+  </si>
+  <si>
+    <t>How Much Does Cypress Stand to Benefit from Apple’s and Samsung’s Latest Designs?</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/954a371f-7336-3cbc-8d09-61eae3dc2d2b/how-much-does-cypress-stand-to-benefit-from-apples-and-samsungs-latest-designs?utm_source=yahoo&amp;utm_medium=feed&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>12:48:42</t>
+  </si>
+  <si>
+    <t>Early movers: MCD, AAPL, MGI, BABA, GM, FB, UAL, WMT, LLY &amp; more</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/2b436e5b-fee1-3738-ae31-04ba5c138bc7/104407062?__source=yahoo%7Cfinance%7Cheadline%7Cheadline%7Cstory&amp;par=yahoo&amp;doc=104407062&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:07:00</t>
+  </si>
+  <si>
+    <t>Apple Should Leave the Car-Making to Ford</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/5bf3f5a2-e120-39a4-bbb5-e37b27d8a4fb/apple-should-leave-car-making-ford?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:17:55</t>
+  </si>
+  <si>
+    <t>[$$] Foxconn seeks Apple's backing for Toshiba memory business bid</t>
+  </si>
+  <si>
+    <t>Dear Apple, Please Leave the Car-Making to Ford</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/f81c62b9-c7e5-359e-b9bb-37dbd4086a8e/dear-apple-please-leave-the-car-making-to-ford.html?puc=yahoo&amp;cm_ven=YAHOO&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>13:34:35</t>
+  </si>
+  <si>
+    <t>Apple, Facebook Get Price-Target Hikes; McDonald&amp;apos;s A Buy</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/c9151e15-f91a-3288-bc2e-461a2e3ce8ae/apple-facebook-get-price-target-hikes-mcdonalds-a-buy?src=A00220A&amp;yptr=yahoo&amp;.tsrc=rss</t>
+  </si>
+  <si>
+    <t>Brad Stone On The Past, Present, And Future Of Uber And Airbnb</t>
+  </si>
+  <si>
+    <t>http://finance.yahoo.com/r/06292955-3d20-30c3-9813-919996e26f62/brad-stone-on-the-past-present-and-future-of-uber-and-airbnb?utm_source=yahoo&amp;utm_medium=partner&amp;utm_campaign=yahootix&amp;partner=yahootix&amp;yptr=yahoo&amp;.tsrc=rss</t>
   </si>
 </sst>
 </file>
@@ -4784,7 +6524,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:F570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11010,9 +12750,2652 @@
       <c r="D399" t="s">
         <v>1222</v>
       </c>
-      <c r="E399" t="s"/>
       <c r="F399" t="s">
         <v>1223</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C401" t="s">
+        <v>290</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B402" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D409" t="s">
+        <v>65</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F409" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D415" t="s">
+        <v>185</v>
+      </c>
+      <c r="F415" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B423" t="s">
+        <v>310</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D430" t="s">
+        <v>450</v>
+      </c>
+      <c r="F430" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B444" t="s">
+        <v>844</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B451" t="s">
+        <v>933</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B455" t="s">
+        <v>939</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F455" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F457" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F458" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F462" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F463" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F466" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F470" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F472" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F473" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F480" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F481" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F482" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F484" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D486" t="s">
+        <v>65</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F486" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F496" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B498" t="s">
+        <v>153</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B501" t="s">
+        <v>459</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F501" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B508" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B530" t="s">
+        <v>338</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B534" t="s">
+        <v>153</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B536" t="s">
+        <v>708</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B537" t="s">
+        <v>708</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B539" t="s">
+        <v>887</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D548" t="s">
+        <v>65</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F548" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B555" t="s">
+        <v>652</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B556" t="s">
+        <v>338</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B560" t="s">
+        <v>971</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D561" t="s">
+        <v>389</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C567" t="s"/>
+      <c r="D567" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E567" t="s"/>
+      <c r="F567" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B568" t="s">
+        <v>855</v>
+      </c>
+      <c r="C568" t="s"/>
+      <c r="D568" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E568" t="s"/>
+      <c r="F568" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C569" t="s"/>
+      <c r="D569" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E569" t="s"/>
+      <c r="F569" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B570" t="s">
+        <v>675</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E570" t="s"/>
+      <c r="F570" t="s">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
